--- a/bin/mia-result/Test_set_1/Gegenüberstellung/Komplette_geg.xlsx
+++ b/bin/mia-result/Test_set_1/Gegenüberstellung/Komplette_geg.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7361bdf95a53a600/Dokumente/Nic_Stuff/GitHub/MIALab_project/bin/mia-result/Test_set_1/Gegenüberstellung/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="164" documentId="8_{404F521C-FDEE-4064-BAA4-7DD3936EE2E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{92D39148-AF26-4AF6-B178-7F893F5DF486}"/>
+  <xr:revisionPtr revIDLastSave="166" documentId="8_{404F521C-FDEE-4064-BAA4-7DD3936EE2E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B2BE968D-A79A-4D21-9CF0-CD85B7171F69}"/>
   <bookViews>
-    <workbookView xWindow="-7335" yWindow="7410" windowWidth="14850" windowHeight="11460" xr2:uid="{0DA72E1D-CC91-4D94-A985-3DB38F11CB1F}"/>
+    <workbookView xWindow="0" yWindow="7410" windowWidth="14850" windowHeight="11460" xr2:uid="{0DA72E1D-CC91-4D94-A985-3DB38F11CB1F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="40">
   <si>
     <t>LABEL</t>
   </si>
@@ -152,6 +152,9 @@
   <si>
     <t>Inference_5</t>
   </si>
+  <si>
+    <t>QW</t>
+  </si>
 </sst>
 </file>
 
@@ -202,5247 +205,7 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="655">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="131">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -7063,10 +1826,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEEB6F7C-1C05-41E6-82E8-92D1226459E9}">
-  <dimension ref="A1:AD89"/>
+  <dimension ref="A1:AD93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U53" activeCellId="1" sqref="A59 U53"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K93" sqref="K93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13547,436 +8310,444 @@
         <v>7</v>
       </c>
     </row>
+    <row r="93" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="J93" t="s">
+        <v>39</v>
+      </c>
+      <c r="K93" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="D2:AB2">
-    <cfRule type="top10" dxfId="260" priority="197" bottom="1" rank="3"/>
-    <cfRule type="top10" dxfId="259" priority="217" rank="3"/>
+    <cfRule type="top10" dxfId="130" priority="197" bottom="1" rank="3"/>
+    <cfRule type="top10" dxfId="129" priority="217" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:AB3">
-    <cfRule type="top10" dxfId="258" priority="196" rank="3"/>
-    <cfRule type="top10" dxfId="257" priority="216" bottom="1" rank="3"/>
+    <cfRule type="top10" dxfId="128" priority="196" rank="3"/>
+    <cfRule type="top10" dxfId="127" priority="216" bottom="1" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:AB4">
-    <cfRule type="top10" dxfId="256" priority="195" rank="3"/>
-    <cfRule type="top10" dxfId="255" priority="215" bottom="1" rank="3"/>
+    <cfRule type="top10" dxfId="126" priority="195" rank="3"/>
+    <cfRule type="top10" dxfId="125" priority="215" bottom="1" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:AB5">
-    <cfRule type="top10" dxfId="254" priority="194" rank="3"/>
-    <cfRule type="top10" dxfId="253" priority="214" bottom="1" rank="3"/>
+    <cfRule type="top10" dxfId="124" priority="194" rank="3"/>
+    <cfRule type="top10" dxfId="123" priority="214" bottom="1" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:AB6">
-    <cfRule type="top10" dxfId="252" priority="193" bottom="1" rank="3"/>
-    <cfRule type="top10" dxfId="251" priority="213" rank="3"/>
+    <cfRule type="top10" dxfId="122" priority="193" bottom="1" rank="3"/>
+    <cfRule type="top10" dxfId="121" priority="213" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:AB7">
-    <cfRule type="top10" dxfId="250" priority="192" rank="3"/>
-    <cfRule type="top10" dxfId="249" priority="212" bottom="1" rank="3"/>
+    <cfRule type="top10" dxfId="120" priority="192" rank="3"/>
+    <cfRule type="top10" dxfId="119" priority="212" bottom="1" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:AB8">
-    <cfRule type="top10" dxfId="248" priority="191" rank="3"/>
-    <cfRule type="top10" dxfId="247" priority="211" bottom="1" rank="3"/>
+    <cfRule type="top10" dxfId="118" priority="191" rank="3"/>
+    <cfRule type="top10" dxfId="117" priority="211" bottom="1" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:AB9">
-    <cfRule type="top10" dxfId="246" priority="190" rank="3"/>
-    <cfRule type="top10" dxfId="245" priority="210" bottom="1" rank="3"/>
+    <cfRule type="top10" dxfId="116" priority="190" rank="3"/>
+    <cfRule type="top10" dxfId="115" priority="210" bottom="1" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:AB10">
-    <cfRule type="top10" dxfId="244" priority="189" bottom="1" rank="3"/>
-    <cfRule type="top10" dxfId="243" priority="209" rank="3"/>
+    <cfRule type="top10" dxfId="114" priority="189" bottom="1" rank="3"/>
+    <cfRule type="top10" dxfId="113" priority="209" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:AB11">
-    <cfRule type="top10" dxfId="242" priority="188" rank="3"/>
-    <cfRule type="top10" dxfId="241" priority="208" bottom="1" rank="3"/>
+    <cfRule type="top10" dxfId="112" priority="188" rank="3"/>
+    <cfRule type="top10" dxfId="111" priority="208" bottom="1" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:AB12">
-    <cfRule type="top10" dxfId="240" priority="187" rank="3"/>
-    <cfRule type="top10" dxfId="239" priority="207" bottom="1" rank="3"/>
+    <cfRule type="top10" dxfId="110" priority="187" rank="3"/>
+    <cfRule type="top10" dxfId="109" priority="207" bottom="1" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:AB13">
-    <cfRule type="top10" dxfId="238" priority="186" rank="3"/>
-    <cfRule type="top10" dxfId="237" priority="206" bottom="1" rank="3"/>
+    <cfRule type="top10" dxfId="108" priority="186" rank="3"/>
+    <cfRule type="top10" dxfId="107" priority="206" bottom="1" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:AB14">
-    <cfRule type="top10" dxfId="236" priority="185" bottom="1" rank="3"/>
-    <cfRule type="top10" dxfId="235" priority="205" rank="3"/>
+    <cfRule type="top10" dxfId="106" priority="185" bottom="1" rank="3"/>
+    <cfRule type="top10" dxfId="105" priority="205" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:AB15">
-    <cfRule type="top10" dxfId="234" priority="184" rank="3"/>
-    <cfRule type="top10" dxfId="233" priority="204" bottom="1" rank="3"/>
+    <cfRule type="top10" dxfId="104" priority="184" rank="3"/>
+    <cfRule type="top10" dxfId="103" priority="204" bottom="1" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:AB16">
-    <cfRule type="top10" dxfId="232" priority="183" rank="3"/>
-    <cfRule type="top10" dxfId="231" priority="203" bottom="1" rank="3"/>
+    <cfRule type="top10" dxfId="102" priority="183" rank="3"/>
+    <cfRule type="top10" dxfId="101" priority="203" bottom="1" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:AB17">
-    <cfRule type="top10" dxfId="230" priority="182" rank="3"/>
-    <cfRule type="top10" dxfId="229" priority="202" bottom="1" rank="3"/>
+    <cfRule type="top10" dxfId="100" priority="182" rank="3"/>
+    <cfRule type="top10" dxfId="99" priority="202" bottom="1" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18:AB18">
-    <cfRule type="top10" dxfId="228" priority="181" bottom="1" rank="3"/>
-    <cfRule type="top10" dxfId="227" priority="201" rank="3"/>
+    <cfRule type="top10" dxfId="98" priority="181" bottom="1" rank="3"/>
+    <cfRule type="top10" dxfId="97" priority="201" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:AB19">
-    <cfRule type="top10" dxfId="226" priority="180" rank="3"/>
-    <cfRule type="top10" dxfId="225" priority="200" bottom="1" rank="3"/>
+    <cfRule type="top10" dxfId="96" priority="180" rank="3"/>
+    <cfRule type="top10" dxfId="95" priority="200" bottom="1" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20:AB20">
-    <cfRule type="top10" dxfId="224" priority="179" rank="3"/>
-    <cfRule type="top10" dxfId="223" priority="199" bottom="1" rank="3"/>
+    <cfRule type="top10" dxfId="94" priority="179" rank="3"/>
+    <cfRule type="top10" dxfId="93" priority="199" bottom="1" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:AB21">
-    <cfRule type="top10" dxfId="222" priority="178" rank="3"/>
-    <cfRule type="top10" dxfId="221" priority="198" bottom="1" rank="3"/>
+    <cfRule type="top10" dxfId="92" priority="178" rank="3"/>
+    <cfRule type="top10" dxfId="91" priority="198" bottom="1" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD2">
-    <cfRule type="top10" dxfId="220" priority="177" rank="1"/>
+    <cfRule type="top10" dxfId="90" priority="177" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD3">
-    <cfRule type="top10" dxfId="219" priority="176" rank="1"/>
+    <cfRule type="top10" dxfId="89" priority="176" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD4">
-    <cfRule type="top10" dxfId="218" priority="175" rank="1"/>
+    <cfRule type="top10" dxfId="88" priority="175" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD5">
-    <cfRule type="top10" dxfId="217" priority="174" rank="1"/>
+    <cfRule type="top10" dxfId="87" priority="174" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD6">
-    <cfRule type="top10" dxfId="216" priority="173" rank="1"/>
+    <cfRule type="top10" dxfId="86" priority="173" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD7">
-    <cfRule type="top10" dxfId="215" priority="172" rank="1"/>
+    <cfRule type="top10" dxfId="85" priority="172" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD8">
-    <cfRule type="top10" dxfId="214" priority="171" rank="1"/>
+    <cfRule type="top10" dxfId="84" priority="171" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD9">
-    <cfRule type="top10" dxfId="213" priority="170" rank="1"/>
+    <cfRule type="top10" dxfId="83" priority="170" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD10">
-    <cfRule type="top10" dxfId="212" priority="169" rank="1"/>
+    <cfRule type="top10" dxfId="82" priority="169" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD11">
-    <cfRule type="top10" dxfId="211" priority="168" rank="1"/>
+    <cfRule type="top10" dxfId="81" priority="168" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD12">
-    <cfRule type="top10" dxfId="210" priority="167" rank="1"/>
+    <cfRule type="top10" dxfId="80" priority="167" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30:AB30">
-    <cfRule type="cellIs" dxfId="209" priority="115" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="79" priority="115" operator="greaterThan">
       <formula>0.5527125</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:AB31">
-    <cfRule type="cellIs" dxfId="208" priority="114" operator="lessThan">
+    <cfRule type="cellIs" dxfId="78" priority="114" operator="lessThan">
       <formula>0.0498533755241117</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32:AB32">
-    <cfRule type="cellIs" dxfId="207" priority="113" operator="lessThan">
+    <cfRule type="cellIs" dxfId="77" priority="113" operator="lessThan">
       <formula>12.4129498755767</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33:AB33">
-    <cfRule type="cellIs" dxfId="206" priority="112" operator="lessThan">
+    <cfRule type="cellIs" dxfId="76" priority="112" operator="lessThan">
       <formula>1.27227174236411</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34:AB34">
-    <cfRule type="cellIs" dxfId="205" priority="111" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="75" priority="111" operator="greaterThan">
       <formula>0.725482954873033</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35:AB35">
-    <cfRule type="cellIs" dxfId="204" priority="110" operator="lessThan">
+    <cfRule type="cellIs" dxfId="74" priority="110" operator="lessThan">
       <formula>0.00803444237180981</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36:AB36">
-    <cfRule type="cellIs" dxfId="203" priority="109" operator="lessThan">
+    <cfRule type="cellIs" dxfId="73" priority="109" operator="lessThan">
       <formula>2.09216256977827</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D37:AB37">
-    <cfRule type="cellIs" dxfId="202" priority="108" operator="lessThan">
+    <cfRule type="cellIs" dxfId="72" priority="108" operator="lessThan">
       <formula>0.151181287263872</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38:AB38">
-    <cfRule type="cellIs" dxfId="201" priority="107" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="71" priority="107" operator="greaterThan">
       <formula>0.53896883456835</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39:AB39">
-    <cfRule type="cellIs" dxfId="200" priority="106" operator="lessThan">
+    <cfRule type="cellIs" dxfId="70" priority="106" operator="lessThan">
       <formula>0.0207768416296156</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40:AB40">
-    <cfRule type="cellIs" dxfId="199" priority="105" operator="lessThan">
+    <cfRule type="cellIs" dxfId="69" priority="105" operator="lessThan">
       <formula>13.0523544225735</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41:AB41">
-    <cfRule type="cellIs" dxfId="198" priority="104" operator="lessThan">
+    <cfRule type="cellIs" dxfId="68" priority="104" operator="lessThan">
       <formula>0.967493683455265</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42:AB42">
-    <cfRule type="cellIs" dxfId="197" priority="103" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="67" priority="103" operator="greaterThan">
       <formula>0.747342438504246</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43:AB43">
-    <cfRule type="cellIs" dxfId="196" priority="102" operator="lessThan">
+    <cfRule type="cellIs" dxfId="66" priority="102" operator="lessThan">
       <formula>0.0308467373671864</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44:AB44">
-    <cfRule type="cellIs" dxfId="195" priority="101" operator="lessThan">
+    <cfRule type="cellIs" dxfId="65" priority="101" operator="lessThan">
       <formula>14.7455407427499</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45:AB45">
-    <cfRule type="cellIs" dxfId="194" priority="100" operator="lessThan">
+    <cfRule type="cellIs" dxfId="64" priority="100" operator="lessThan">
       <formula>1.08121607641681</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46:AB46">
-    <cfRule type="cellIs" dxfId="193" priority="99" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="63" priority="99" operator="greaterThan">
       <formula>0.824975042797109</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47:AB47">
-    <cfRule type="cellIs" dxfId="192" priority="98" operator="lessThan">
+    <cfRule type="cellIs" dxfId="62" priority="98" operator="lessThan">
       <formula>0.0191114021943335</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D48:AB48">
-    <cfRule type="cellIs" dxfId="191" priority="97" operator="lessThan">
+    <cfRule type="cellIs" dxfId="61" priority="97" operator="lessThan">
       <formula>2.71934853067379</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49:AB49">
-    <cfRule type="cellIs" dxfId="190" priority="96" operator="lessThan">
+    <cfRule type="cellIs" dxfId="60" priority="96" operator="lessThan">
       <formula>0.324258490593967</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D60:V60 X60:AB60">
-    <cfRule type="top10" dxfId="189" priority="75" bottom="1" rank="3"/>
-    <cfRule type="top10" dxfId="188" priority="95" rank="3"/>
+    <cfRule type="top10" dxfId="59" priority="75" bottom="1" rank="3"/>
+    <cfRule type="top10" dxfId="58" priority="95" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D61:V61 X61:AB61">
-    <cfRule type="top10" dxfId="187" priority="74" rank="3"/>
-    <cfRule type="top10" dxfId="186" priority="94" bottom="1" rank="3"/>
+    <cfRule type="top10" dxfId="57" priority="74" rank="3"/>
+    <cfRule type="top10" dxfId="56" priority="94" bottom="1" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D62:V62 X62:AB62">
-    <cfRule type="top10" dxfId="185" priority="71" bottom="1" rank="3"/>
-    <cfRule type="top10" dxfId="184" priority="91" rank="3"/>
+    <cfRule type="top10" dxfId="55" priority="71" bottom="1" rank="3"/>
+    <cfRule type="top10" dxfId="54" priority="91" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D63:V63 X63:AB63">
-    <cfRule type="top10" dxfId="183" priority="70" rank="3"/>
-    <cfRule type="top10" dxfId="182" priority="90" bottom="1" rank="3"/>
+    <cfRule type="top10" dxfId="53" priority="70" rank="3"/>
+    <cfRule type="top10" dxfId="52" priority="90" bottom="1" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D64:V64 X64:AB64">
-    <cfRule type="top10" dxfId="181" priority="67" bottom="1" rank="3"/>
-    <cfRule type="top10" dxfId="180" priority="87" rank="3"/>
+    <cfRule type="top10" dxfId="51" priority="67" bottom="1" rank="3"/>
+    <cfRule type="top10" dxfId="50" priority="87" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D65:V65 X65:AB65">
-    <cfRule type="top10" dxfId="179" priority="66" rank="3"/>
-    <cfRule type="top10" dxfId="178" priority="86" bottom="1" rank="3"/>
+    <cfRule type="top10" dxfId="49" priority="66" rank="3"/>
+    <cfRule type="top10" dxfId="48" priority="86" bottom="1" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D66:V66 X66:AB66">
-    <cfRule type="top10" dxfId="177" priority="63" bottom="1" rank="3"/>
-    <cfRule type="top10" dxfId="176" priority="83" rank="3"/>
+    <cfRule type="top10" dxfId="47" priority="63" bottom="1" rank="3"/>
+    <cfRule type="top10" dxfId="46" priority="83" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D67:V67 X67:AB67">
-    <cfRule type="top10" dxfId="175" priority="62" rank="3"/>
-    <cfRule type="top10" dxfId="174" priority="82" bottom="1" rank="3"/>
+    <cfRule type="top10" dxfId="45" priority="62" rank="3"/>
+    <cfRule type="top10" dxfId="44" priority="82" bottom="1" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D68:V68 X68:AB68">
-    <cfRule type="top10" dxfId="173" priority="59" bottom="1" rank="3"/>
-    <cfRule type="top10" dxfId="172" priority="79" rank="3"/>
+    <cfRule type="top10" dxfId="43" priority="59" bottom="1" rank="3"/>
+    <cfRule type="top10" dxfId="42" priority="79" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D69:V69 X69:AB69">
-    <cfRule type="top10" dxfId="171" priority="58" rank="3"/>
-    <cfRule type="top10" dxfId="170" priority="78" bottom="1" rank="3"/>
+    <cfRule type="top10" dxfId="41" priority="58" rank="3"/>
+    <cfRule type="top10" dxfId="40" priority="78" bottom="1" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD60">
-    <cfRule type="top10" dxfId="169" priority="55" rank="1"/>
+    <cfRule type="top10" dxfId="39" priority="55" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD61">
-    <cfRule type="top10" dxfId="168" priority="54" rank="1"/>
+    <cfRule type="top10" dxfId="38" priority="54" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD62">
-    <cfRule type="top10" dxfId="167" priority="51" rank="1"/>
+    <cfRule type="top10" dxfId="37" priority="51" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD63">
-    <cfRule type="top10" dxfId="166" priority="50" rank="1"/>
+    <cfRule type="top10" dxfId="36" priority="50" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD64">
-    <cfRule type="top10" dxfId="165" priority="47" rank="1"/>
+    <cfRule type="top10" dxfId="35" priority="47" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD65">
-    <cfRule type="top10" dxfId="164" priority="46" rank="1"/>
+    <cfRule type="top10" dxfId="34" priority="46" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D78:V78 X78:AB78">
-    <cfRule type="cellIs" dxfId="163" priority="44" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="33" priority="44" operator="greaterThan">
       <formula>0.5527125</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D79:V79 X79:AB79">
-    <cfRule type="cellIs" dxfId="162" priority="43" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="43" operator="lessThan">
       <formula>0.0498533755241117</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D80:V80 X80:AB80">
-    <cfRule type="cellIs" dxfId="161" priority="40" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="31" priority="40" operator="greaterThan">
       <formula>0.725482954873033</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D81:V81 X81:AB81">
-    <cfRule type="cellIs" dxfId="160" priority="39" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="39" operator="lessThan">
       <formula>0.00803444237180981</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D82:V82 X82:AB82">
-    <cfRule type="cellIs" dxfId="159" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="29" priority="36" operator="greaterThan">
       <formula>0.53896883456835</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D83:V83 X83:AB83">
-    <cfRule type="cellIs" dxfId="158" priority="35" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="35" operator="lessThan">
       <formula>0.0207768416296156</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D84:V84 X84:AB84">
-    <cfRule type="cellIs" dxfId="157" priority="32" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="27" priority="32" operator="greaterThan">
       <formula>0.747342438504246</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D85:V85 X85:AB85">
-    <cfRule type="cellIs" dxfId="156" priority="31" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="31" operator="lessThan">
       <formula>0.0308467373671864</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D86:V86 X86:AB86">
-    <cfRule type="cellIs" dxfId="155" priority="28" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="25" priority="28" operator="greaterThan">
       <formula>0.824975042797109</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D87:V87 X87:AB87">
-    <cfRule type="cellIs" dxfId="154" priority="27" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="27" operator="lessThan">
       <formula>0.0191114021943335</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W60">
-    <cfRule type="cellIs" dxfId="153" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="23" priority="24" operator="greaterThan">
       <formula>0.5527125</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W61">
-    <cfRule type="cellIs" dxfId="152" priority="23" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="23" operator="lessThan">
       <formula>0.0498533755241117</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W78">
-    <cfRule type="cellIs" dxfId="151" priority="22" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="21" priority="22" operator="greaterThan">
       <formula>0.5527125</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W79">
-    <cfRule type="cellIs" dxfId="150" priority="21" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="21" operator="lessThan">
       <formula>0.0498533755241117</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W62">
-    <cfRule type="cellIs" dxfId="149" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="19" priority="20" operator="greaterThan">
       <formula>0.725482954873033</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W63">
-    <cfRule type="cellIs" dxfId="148" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="19" operator="lessThan">
       <formula>0.00803444237180981</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W80">
-    <cfRule type="cellIs" dxfId="147" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="18" operator="greaterThan">
       <formula>0.725482954873033</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W81">
-    <cfRule type="cellIs" dxfId="146" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="17" operator="lessThan">
       <formula>0.00803444237180981</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W64">
-    <cfRule type="cellIs" dxfId="145" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="16" operator="greaterThan">
       <formula>0.53896883456835</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W65">
-    <cfRule type="cellIs" dxfId="144" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="15" operator="lessThan">
       <formula>0.0207768416296156</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W82">
-    <cfRule type="cellIs" dxfId="143" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="greaterThan">
       <formula>0.53896883456835</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W83">
-    <cfRule type="cellIs" dxfId="142" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="lessThan">
       <formula>0.0207768416296156</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W66">
-    <cfRule type="cellIs" dxfId="141" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="greaterThan">
       <formula>0.747342438504246</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W67">
-    <cfRule type="cellIs" dxfId="140" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="lessThan">
       <formula>0.0308467373671864</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W84">
-    <cfRule type="cellIs" dxfId="139" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="greaterThan">
       <formula>0.747342438504246</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W85">
-    <cfRule type="cellIs" dxfId="138" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="lessThan">
       <formula>0.0308467373671864</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W68">
-    <cfRule type="cellIs" dxfId="137" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="greaterThan">
       <formula>0.824975042797109</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W69">
-    <cfRule type="cellIs" dxfId="136" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="lessThan">
       <formula>0.0191114021943335</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W86">
-    <cfRule type="cellIs" dxfId="135" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThan">
       <formula>0.824975042797109</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W87">
-    <cfRule type="cellIs" dxfId="134" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="lessThan">
       <formula>0.0191114021943335</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71:AB71">
-    <cfRule type="top10" dxfId="133" priority="4" rank="5"/>
+    <cfRule type="top10" dxfId="3" priority="4" rank="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D72:AB72 D74:AB75">
-    <cfRule type="top10" dxfId="132" priority="218" bottom="1" rank="5"/>
+    <cfRule type="top10" dxfId="2" priority="218" bottom="1" rank="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D75:AB75">
-    <cfRule type="top10" dxfId="131" priority="2" bottom="1" rank="3"/>
+    <cfRule type="top10" dxfId="1" priority="2" bottom="1" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D74:AB74">
     <cfRule type="top10" dxfId="0" priority="1" rank="1"/>
